--- a/biology/Zoologie/Hespérie_de_la_parcinière/Hespérie_de_la_parcinière.xlsx
+++ b/biology/Zoologie/Hespérie_de_la_parcinière/Hespérie_de_la_parcinière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+          <t>Hespérie_de_la_parcinière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrgus carlinae
 L'Hespérie de la parcinière ou Hespérie de la carline (Pyrgus carlinae) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Pyrgus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+          <t>Hespérie_de_la_parcinière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Pyrgus carlinae a été décrite par Pierre Rambur en 1839 sous le protonyme Hesperia carlinae[1].
-L'espèce voisine Pyrgus cirsii est parfois considérée comme une sous-espèce de Pyrgus carlinae sous le nom de Pyrgus carlinae cirsii. P. carlinae et P. cirsii peuvent s'hybrider dans les zones où elles cohabitent[2].
-Noms vernaculaires
-en français : l'Hespérie de la Parcinière, l'Hespérie de la Carline, le Carlin[3]
-en anglais : Carline Skipper[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pyrgus carlinae a été décrite par Pierre Rambur en 1839 sous le protonyme Hesperia carlinae.
+L'espèce voisine Pyrgus cirsii est parfois considérée comme une sous-espèce de Pyrgus carlinae sous le nom de Pyrgus carlinae cirsii. P. carlinae et P. cirsii peuvent s'hybrider dans les zones où elles cohabitent.
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+          <t>Hespérie_de_la_parcinière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hespérie de la parcinière est un petit papillon d'une envergure de 26 mm à 28 mm, au dessus des ailes marron orné de petites taches blanches quadrangulaires et d'un C blanc discal caractéristique. Le revers est plus clair, kaki, avec une ornementation de taches blanches.
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>en français : l'Hespérie de la Parcinière, l'Hespérie de la Carline, le Carlin
+en anglais : Carline Skipper</t>
         </is>
       </c>
     </row>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+          <t>Hespérie_de_la_parcinière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,15 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Univoltine, l'Hespérie de la parcinière vole en juillet-août[2].
-Plantes-hôtes
-Les plantes-hôtes de sa chenille sont des  Potentilla : Potentilla cinerea, Potentilla erecta, Potentilla hirta, Potentilla reptans, Potentilla sterilis et Potentilla verna[1],[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la parcinière est un petit papillon d'une envergure de 26 mm à 28 mm, au dessus des ailes marron orné de petites taches blanches quadrangulaires et d'un C blanc discal caractéristique. Le revers est plus clair, kaki, avec une ornementation de taches blanches.
 </t>
         </is>
       </c>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+          <t>Hespérie_de_la_parcinière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,17 +625,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Univoltine, l'Hespérie de la parcinière vole en juillet-août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_parcinière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes-hôtes de sa chenille sont des  Potentilla : Potentilla cinerea, Potentilla erecta, Potentilla hirta, Potentilla reptans, Potentilla sterilis et Potentilla verna,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_parcinière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hespérie de la parcinière (au sens strict, c'est-à-dire sans compter le taxon cirsii) est endémique  des Alpes, où elle est présente en France, en Suisse, en Italie et en Autriche.
-En France, elle est recensée dans huit départements alpins[4].
-Biotope
-L'Hespérie de la parcinière réside dans les prairies fleuries en altitude[2].
-Protection
-L'espèce n'a pas de statut de protection particulier en France[5]. 
+En France, elle est recensée dans huit départements alpins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_parcinière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la parcinière réside dans les prairies fleuries en altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_parcinière</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_parcini%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France. 
 </t>
         </is>
       </c>
